--- a/resultados/resultados_slot01.xlsx
+++ b/resultados/resultados_slot01.xlsx
@@ -501,7 +501,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004932880401611328</v>
+        <v>0.0005185604095458984</v>
       </c>
       <c r="G2" t="n">
         <v>9.823999052712041e-06</v>
@@ -541,7 +541,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002810955047607422</v>
+        <v>0.0002973079681396484</v>
       </c>
       <c r="G3" t="n">
         <v>8.238903274468924e-06</v>
@@ -581,7 +581,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00205230712890625</v>
+        <v>0.002094507217407227</v>
       </c>
       <c r="G4" t="n">
         <v>9.474759358322195e-06</v>
@@ -621,7 +621,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002035140991210938</v>
+        <v>0.002154350280761719</v>
       </c>
       <c r="G5" t="n">
         <v>9.231985050488229e-06</v>
@@ -661,7 +661,7 @@
         <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6805887222290039</v>
+        <v>0.6271538734436035</v>
       </c>
       <c r="G6" t="n">
         <v>1.949849801837394</v>
@@ -701,7 +701,7 @@
         <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6366732120513916</v>
+        <v>0.5756454467773438</v>
       </c>
       <c r="G7" t="n">
         <v>1.949849045039875</v>
@@ -741,7 +741,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002079248428344727</v>
+        <v>0.001944065093994141</v>
       </c>
       <c r="G8" t="n">
         <v>9.476762731587938e-06</v>
@@ -781,7 +781,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002490758895874023</v>
+        <v>0.002200126647949219</v>
       </c>
       <c r="G9" t="n">
         <v>9.39875961157442e-06</v>
@@ -821,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008809566497802734</v>
+        <v>0.001161336898803711</v>
       </c>
       <c r="G10" t="n">
         <v>9.995277769725955e-06</v>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003111362457275391</v>
+        <v>0.0003437995910644531</v>
       </c>
       <c r="G11" t="n">
         <v>4.46014574004523e-06</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002022027969360352</v>
+        <v>0.002050876617431641</v>
       </c>
       <c r="G12" t="n">
         <v>9.674228898889385e-06</v>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002415180206298828</v>
+        <v>0.002039432525634766</v>
       </c>
       <c r="G13" t="n">
         <v>8.396609807024361e-06</v>
@@ -981,7 +981,7 @@
         <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6913721561431885</v>
+        <v>0.7119674682617188</v>
       </c>
       <c r="G14" t="n">
         <v>3.371075054591854</v>
@@ -1021,7 +1021,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.618675708770752</v>
+        <v>0.6940317153930664</v>
       </c>
       <c r="G15" t="n">
         <v>3.371078654524609</v>
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001878976821899414</v>
+        <v>0.002184867858886719</v>
       </c>
       <c r="G16" t="n">
         <v>9.674823019579423e-06</v>
@@ -1101,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003075122833251953</v>
+        <v>0.003658056259155273</v>
       </c>
       <c r="G17" t="n">
         <v>7.93995947174555e-06</v>
@@ -1141,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003246068954467773</v>
+        <v>0.003670215606689453</v>
       </c>
       <c r="G18" t="n">
         <v>9.397377028680276e-06</v>
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002345561981201172</v>
+        <v>0.004830598831176758</v>
       </c>
       <c r="G19" t="n">
         <v>4.186377565356223e-06</v>
@@ -1221,7 +1221,7 @@
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004098415374755859</v>
+        <v>0.01969337463378906</v>
       </c>
       <c r="G20" t="n">
         <v>6.485448959809388e-06</v>
@@ -1261,7 +1261,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004106760025024414</v>
+        <v>0.0157773494720459</v>
       </c>
       <c r="G21" t="n">
         <v>4.535381758166918e-06</v>
@@ -1301,7 +1301,7 @@
         <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>1.904410839080811</v>
+        <v>2.52679443359375</v>
       </c>
       <c r="G22" t="n">
         <v>2922.122559918642</v>
@@ -1341,7 +1341,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>1.991519689559937</v>
+        <v>2.304679870605469</v>
       </c>
       <c r="G23" t="n">
         <v>2922.098861102356</v>
@@ -1381,7 +1381,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00429534912109375</v>
+        <v>0.00462651252746582</v>
       </c>
       <c r="G24" t="n">
         <v>6.486092513709352e-06</v>
@@ -1421,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005512237548828125</v>
+        <v>0.006064176559448242</v>
       </c>
       <c r="G25" t="n">
         <v>8.438909571862254e-06</v>
@@ -1461,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0002038478851318359</v>
+        <v>0.0002262592315673828</v>
       </c>
       <c r="G26" t="n">
         <v>4.517595135129306e-06</v>
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0001707077026367188</v>
+        <v>0.0002579689025878906</v>
       </c>
       <c r="G27" t="n">
         <v>4.517595135129306e-06</v>
@@ -1541,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>9.799003601074219e-05</v>
+        <v>0.0001220703125</v>
       </c>
       <c r="G28" t="n">
         <v>4.517595135129306e-06</v>
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>9.608268737792969e-05</v>
+        <v>0.0001001358032226562</v>
       </c>
       <c r="G29" t="n">
         <v>4.517595135129306e-06</v>
@@ -1621,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>9.72747802734375e-05</v>
+        <v>0.0001001358032226562</v>
       </c>
       <c r="G30" t="n">
         <v>4.517595135129306e-06</v>
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>9.584426879882812e-05</v>
+        <v>0.0001246929168701172</v>
       </c>
       <c r="G31" t="n">
         <v>4.517595135129306e-06</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>9.512901306152344e-05</v>
+        <v>0.0001313686370849609</v>
       </c>
       <c r="G32" t="n">
         <v>4.517595135129306e-06</v>
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>9.512901306152344e-05</v>
+        <v>0.0001230239868164062</v>
       </c>
       <c r="G33" t="n">
         <v>4.517595135129306e-06</v>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0003290176391601562</v>
+        <v>0.0003559589385986328</v>
       </c>
       <c r="G34" t="n">
         <v>6.552017779427426e-09</v>
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0003447532653808594</v>
+        <v>0.0003771781921386719</v>
       </c>
       <c r="G35" t="n">
         <v>6.552017779427426e-09</v>
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001537799835205078</v>
+        <v>0.0001888275146484375</v>
       </c>
       <c r="G36" t="n">
         <v>6.552017779427426e-09</v>
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0001473426818847656</v>
+        <v>0.0001549720764160156</v>
       </c>
       <c r="G37" t="n">
         <v>6.552017779427426e-09</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0001473426818847656</v>
+        <v>0.0001547336578369141</v>
       </c>
       <c r="G38" t="n">
         <v>6.552017779427426e-09</v>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0001471042633056641</v>
+        <v>0.0001559257507324219</v>
       </c>
       <c r="G39" t="n">
         <v>6.552017779427426e-09</v>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001475811004638672</v>
+        <v>0.0001549720764160156</v>
       </c>
       <c r="G40" t="n">
         <v>6.552017779427426e-09</v>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001471042633056641</v>
+        <v>0.0001604557037353516</v>
       </c>
       <c r="G41" t="n">
         <v>6.552017779427426e-09</v>
@@ -2101,7 +2101,7 @@
         <v>113</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001393795013427734</v>
+        <v>0.001496553421020508</v>
       </c>
       <c r="G42" t="n">
         <v>9.718522766616134e-06</v>
@@ -2141,7 +2141,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0005731582641601562</v>
+        <v>0.0006022453308105469</v>
       </c>
       <c r="G43" t="n">
         <v>6.624151165445741e-06</v>
@@ -2181,7 +2181,7 @@
         <v>87</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00537109375</v>
+        <v>0.006879568099975586</v>
       </c>
       <c r="G44" t="n">
         <v>9.865078798627148e-06</v>
@@ -2221,7 +2221,7 @@
         <v>83</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00501704216003418</v>
+        <v>0.005330801010131836</v>
       </c>
       <c r="G45" t="n">
         <v>9.625404064819425e-06</v>
@@ -2261,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5758893489837646</v>
+        <v>0.6258301734924316</v>
       </c>
       <c r="G46" t="n">
         <v>1.747072136716057</v>
@@ -2301,7 +2301,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5566473007202148</v>
+        <v>0.7055118083953857</v>
       </c>
       <c r="G47" t="n">
         <v>1.747072632320636</v>
@@ -2341,7 +2341,7 @@
         <v>87</v>
       </c>
       <c r="F48" t="n">
-        <v>0.004937410354614258</v>
+        <v>0.006899833679199219</v>
       </c>
       <c r="G48" t="n">
         <v>9.874550582640117e-06</v>
@@ -2381,7 +2381,7 @@
         <v>33</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003557205200195312</v>
+        <v>0.005719900131225586</v>
       </c>
       <c r="G49" t="n">
         <v>9.450595765369624e-06</v>
@@ -2421,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0002939701080322266</v>
+        <v>0.0005974769592285156</v>
       </c>
       <c r="G50" t="n">
         <v>4.799966897596188e-09</v>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0002279281616210938</v>
+        <v>0.0003628730773925781</v>
       </c>
       <c r="G51" t="n">
         <v>4.799966897596188e-09</v>
@@ -2501,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0001389980316162109</v>
+        <v>0.0001680850982666016</v>
       </c>
       <c r="G52" t="n">
         <v>4.799966897596188e-09</v>
@@ -2541,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0001714229583740234</v>
+        <v>0.0001659393310546875</v>
       </c>
       <c r="G53" t="n">
         <v>4.799966897596188e-09</v>
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0001761913299560547</v>
+        <v>0.0001676082611083984</v>
       </c>
       <c r="G54" t="n">
         <v>4.799966897596188e-09</v>
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0001761913299560547</v>
+        <v>0.00028228759765625</v>
       </c>
       <c r="G55" t="n">
         <v>4.799966897596188e-09</v>
@@ -2661,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0001776218414306641</v>
+        <v>0.0001745223999023438</v>
       </c>
       <c r="G56" t="n">
         <v>4.799966897596188e-09</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0001850128173828125</v>
+        <v>0.0002300739288330078</v>
       </c>
       <c r="G57" t="n">
         <v>4.799966897596188e-09</v>
@@ -2741,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0007572174072265625</v>
+        <v>0.001435279846191406</v>
       </c>
       <c r="G58" t="n">
         <v>9.565210892718181e-06</v>
@@ -2781,7 +2781,7 @@
         <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0004711151123046875</v>
+        <v>0.0004947185516357422</v>
       </c>
       <c r="G59" t="n">
         <v>9.211080345916188e-06</v>
@@ -2821,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00278162956237793</v>
+        <v>0.002919435501098633</v>
       </c>
       <c r="G60" t="n">
         <v>9.97909984250148e-06</v>
@@ -2861,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="n">
-        <v>0.002697944641113281</v>
+        <v>0.002790927886962891</v>
       </c>
       <c r="G61" t="n">
         <v>8.547090039893088e-06</v>
@@ -2901,7 +2901,7 @@
         <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6087543964385986</v>
+        <v>0.6930055618286133</v>
       </c>
       <c r="G62" t="n">
         <v>3.133800694444731</v>
@@ -2941,7 +2941,7 @@
         <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5848276615142822</v>
+        <v>0.6495673656463623</v>
       </c>
       <c r="G63" t="n">
         <v>3.133796175468223</v>
@@ -2981,7 +2981,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="n">
-        <v>0.002669572830200195</v>
+        <v>0.003691196441650391</v>
       </c>
       <c r="G64" t="n">
         <v>9.980390471303067e-06</v>
@@ -3021,7 +3021,7 @@
         <v>34</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0037841796875</v>
+        <v>0.004909992218017578</v>
       </c>
       <c r="G65" t="n">
         <v>9.249742630033673e-06</v>
@@ -3061,7 +3061,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>0.000438690185546875</v>
+        <v>0.0006093978881835938</v>
       </c>
       <c r="G66" t="n">
         <v>9.176403331653046e-06</v>
@@ -3101,7 +3101,7 @@
         <v>11</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001845359802246094</v>
+        <v>0.0002052783966064453</v>
       </c>
       <c r="G67" t="n">
         <v>4.729767321765318e-06</v>
@@ -3141,7 +3141,7 @@
         <v>32</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001806735992431641</v>
+        <v>0.002066612243652344</v>
       </c>
       <c r="G68" t="n">
         <v>9.542545392601616e-06</v>
@@ -3181,7 +3181,7 @@
         <v>31</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001723051071166992</v>
+        <v>0.002134561538696289</v>
       </c>
       <c r="G69" t="n">
         <v>9.380354121974156e-06</v>
@@ -3221,7 +3221,7 @@
         <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6011011600494385</v>
+        <v>0.672884464263916</v>
       </c>
       <c r="G70" t="n">
         <v>2.131550216756769</v>
@@ -3261,7 +3261,7 @@
         <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5718109607696533</v>
+        <v>0.6373414993286133</v>
       </c>
       <c r="G71" t="n">
         <v>2.131552182776363</v>
@@ -3301,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001753091812133789</v>
+        <v>0.002329111099243164</v>
       </c>
       <c r="G72" t="n">
         <v>9.544034930080591e-06</v>
@@ -3341,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="F73" t="n">
-        <v>0.002679586410522461</v>
+        <v>0.003903865814208984</v>
       </c>
       <c r="G73" t="n">
         <v>8.814740530716697e-06</v>
@@ -3381,7 +3381,7 @@
         <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0002903938293457031</v>
+        <v>0.0003960132598876953</v>
       </c>
       <c r="G74" t="n">
         <v>9.308427235353852e-06</v>
@@ -3421,7 +3421,7 @@
         <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0002360343933105469</v>
+        <v>0.0002405643463134766</v>
       </c>
       <c r="G75" t="n">
         <v>8.678266963733286e-06</v>
@@ -3461,7 +3461,7 @@
         <v>26</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00136876106262207</v>
+        <v>0.001384735107421875</v>
       </c>
       <c r="G76" t="n">
         <v>9.944665383250925e-06</v>
@@ -3501,7 +3501,7 @@
         <v>25</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001279592514038086</v>
+        <v>0.001286745071411133</v>
       </c>
       <c r="G77" t="n">
         <v>9.513294772647188e-06</v>
@@ -3541,7 +3541,7 @@
         <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5780205726623535</v>
+        <v>0.653160572052002</v>
       </c>
       <c r="G78" t="n">
         <v>2.527781554518859</v>
@@ -3581,7 +3581,7 @@
         <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5440442562103271</v>
+        <v>0.7998416423797607</v>
       </c>
       <c r="G79" t="n">
         <v>2.527784034290529</v>
@@ -3621,7 +3621,7 @@
         <v>26</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001315116882324219</v>
+        <v>0.001574516296386719</v>
       </c>
       <c r="G80" t="n">
         <v>9.945887004929808e-06</v>
@@ -3661,7 +3661,7 @@
         <v>20</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001901865005493164</v>
+        <v>0.002602815628051758</v>
       </c>
       <c r="G81" t="n">
         <v>9.744847349794025e-06</v>

--- a/resultados/resultados_slot01.xlsx
+++ b/resultados/resultados_slot01.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcspwr02.mtx</t>
+          <t>c130.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.308258605005528</v>
+        <v>2.366980478285793</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003359317779541016</v>
+        <v>0.004698038101196289</v>
       </c>
       <c r="G2" t="n">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcspwr02.mtx</t>
+          <t>c130.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,25 +527,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.308461254391954</v>
+        <v>2.370733342517338</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002951622009277344</v>
+        <v>0.001653671264648438</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001196861267089844</v>
+        <v>0.001617193222045898</v>
       </c>
       <c r="G4" t="n">
         <v>274</v>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003507137298583984</v>
+        <v>0.0008158683776855469</v>
       </c>
       <c r="G5" t="n">
         <v>274</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38_bus.mtx</t>
+          <t>bcspwr02.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30115.82629984464</v>
+        <v>4.308258605005528</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004564523696899414</v>
+        <v>0.001262664794921875</v>
       </c>
       <c r="G6" t="n">
-        <v>1138</v>
+        <v>49</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>38_bus.mtx</t>
+          <t>bcspwr02.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,20 +675,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30114.18326043027</v>
+        <v>4.308461254391954</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003257036209106445</v>
+        <v>0.0008020401000976562</v>
       </c>
       <c r="G7" t="n">
-        <v>1138</v>
+        <v>49</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>494_bus.mtx</t>
+          <t>bcspwr03.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2220.967903929713</v>
+        <v>5.104674213788415</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002846717834472656</v>
+        <v>0.001567840576171875</v>
       </c>
       <c r="G8" t="n">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>494_bus.mtx</t>
+          <t>bcspwr03.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,20 +749,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2220.970984428201</v>
+        <v>5.104142633099601</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002911090850830078</v>
+        <v>0.000446319580078125</v>
       </c>
       <c r="G9" t="n">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>685_bus.mtx</t>
+          <t>38_bus.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26186.48629082991</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005176067352294922</v>
+        <v>0.01273417472839355</v>
       </c>
       <c r="G10" t="n">
-        <v>685</v>
+        <v>1138</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>685_bus.mtx</t>
+          <t>38_bus.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26186.48629088882</v>
+        <v>30114.18326043027</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005249977111816406</v>
+        <v>0.009031057357788086</v>
       </c>
       <c r="G11" t="n">
-        <v>685</v>
+        <v>1138</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c130.mtx</t>
+          <t>685_bus.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.366980478285793</v>
+        <v>26186.48629082991</v>
       </c>
       <c r="E12" t="n">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00165104866027832</v>
+        <v>0.001051425933837891</v>
       </c>
       <c r="G12" t="n">
-        <v>130</v>
+        <v>685</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c130.mtx</t>
+          <t>685_bus.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.370733342517338</v>
+        <v>26186.48629088882</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000675201416015625</v>
+        <v>0.0008580684661865234</v>
       </c>
       <c r="G13" t="n">
-        <v>130</v>
+        <v>685</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>662_bus.mtx</t>
+          <t>h292.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,20 +934,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1422.994613068716</v>
+        <v>9.151774331566605</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0003261566162109375</v>
+        <v>0.002381324768066406</v>
       </c>
       <c r="G14" t="n">
-        <v>662</v>
+        <v>292</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>662_bus.mtx</t>
+          <t>h292.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,20 +971,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1422.994613069662</v>
+        <v>9.152249584058874</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003485679626464844</v>
+        <v>0.001132488250732422</v>
       </c>
       <c r="G15" t="n">
-        <v>662</v>
+        <v>292</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>h292.mtx</t>
+          <t>494_bus.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,20 +1008,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.151774331566605</v>
+        <v>2220.967903929713</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001053810119628906</v>
+        <v>0.0006465911865234375</v>
       </c>
       <c r="G16" t="n">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>h292.mtx</t>
+          <t>494_bus.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,20 +1045,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.152249584058874</v>
+        <v>2220.970984428201</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0005731582641601562</v>
+        <v>0.0004987716674804688</v>
       </c>
       <c r="G17" t="n">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcspwr03.mtx</t>
+          <t>h85.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,16 +1082,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.104674213788415</v>
+        <v>6.721075798530548</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0007205009460449219</v>
+        <v>0.001138925552368164</v>
       </c>
       <c r="G18" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcspwr03.mtx</t>
+          <t>h85.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.104142633099601</v>
+        <v>6.721128139935032</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0002942085266113281</v>
+        <v>0.0008838176727294922</v>
       </c>
       <c r="G19" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>h85.mtx</t>
+          <t>662_bus.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1156,20 +1156,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.721075798530548</v>
+        <v>1422.994613068716</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005309581756591797</v>
+        <v>0.0009610652923583984</v>
       </c>
       <c r="G20" t="n">
-        <v>85</v>
+        <v>662</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>h85.mtx</t>
+          <t>662_bus.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,20 +1193,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.721128139935032</v>
+        <v>1422.994613069662</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002286434173583984</v>
+        <v>0.0008969306945800781</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>662</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
